--- a/code/case/ieee39_htb.xlsx
+++ b/code/case/ieee39_htb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/hlcosim/code/case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F1F1B7-B209-444D-BB3F-56B8C50A6391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E454F472-F80B-A247-A311-E41335FDAD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36480" yWindow="1080" windowWidth="34560" windowHeight="19440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -21,19 +21,20 @@
     <sheet name="Line" sheetId="7" r:id="rId6"/>
     <sheet name="Area" sheetId="8" r:id="rId7"/>
     <sheet name="GENROU" sheetId="9" r:id="rId8"/>
-    <sheet name="TGOV1NDB" sheetId="10" r:id="rId9"/>
+    <sheet name="TGOV1N" sheetId="10" r:id="rId9"/>
     <sheet name="IEEEX1" sheetId="11" r:id="rId10"/>
     <sheet name="IEEEST" sheetId="12" r:id="rId11"/>
-    <sheet name="ACEc" sheetId="14" r:id="rId12"/>
-    <sheet name="Toggler" sheetId="15" r:id="rId13"/>
-    <sheet name="COI" sheetId="16" r:id="rId14"/>
+    <sheet name="BusFreq" sheetId="13" r:id="rId12"/>
+    <sheet name="ACEc" sheetId="14" r:id="rId13"/>
+    <sheet name="Toggler" sheetId="15" r:id="rId14"/>
+    <sheet name="COI" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3148" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="798">
   <si>
     <t>uid</t>
   </si>
@@ -1247,6 +1248,9 @@
     <t>gen</t>
   </si>
   <si>
+    <t>Tf</t>
+  </si>
+  <si>
     <t>fn</t>
   </si>
   <si>
@@ -2399,6 +2403,9 @@
     <t>BusFreq_10</t>
   </si>
   <si>
+    <t>Tw</t>
+  </si>
+  <si>
     <t>bias</t>
   </si>
   <si>
@@ -2421,29 +2428,16 @@
   </si>
   <si>
     <t>GENROU</t>
-  </si>
-  <si>
-    <t>dbL</t>
-  </si>
-  <si>
-    <t>dbU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2469,14 +2463,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2818,9 +2806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4614,52 +4600,52 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="I1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="J1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="K1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="O1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="P1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="Q1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="R1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="S1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="T1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -4667,22 +4653,22 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -4691,28 +4677,28 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="O2" t="s">
         <v>60</v>
       </c>
       <c r="P2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="Q2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="R2" t="s">
         <v>326</v>
@@ -4729,22 +4715,22 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -4753,37 +4739,37 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="K3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L3" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="O3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="P3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Q3" t="s">
         <v>30</v>
       </c>
       <c r="R3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="S3" t="s">
         <v>36</v>
       </c>
       <c r="T3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -4791,22 +4777,22 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -4818,34 +4804,34 @@
         <v>326</v>
       </c>
       <c r="K4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M4" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N4" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O4" t="s">
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Q4" t="s">
         <v>30</v>
       </c>
       <c r="R4" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="S4" t="s">
         <v>36</v>
       </c>
       <c r="T4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -4853,22 +4839,22 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E5" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -4880,34 +4866,34 @@
         <v>326</v>
       </c>
       <c r="K5" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L5" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M5" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N5" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="O5" t="s">
         <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
       </c>
       <c r="R5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="S5" t="s">
         <v>36</v>
       </c>
       <c r="T5" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -4915,22 +4901,22 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -4939,37 +4925,37 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="K6" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L6" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N6" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O6" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="P6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
       </c>
       <c r="R6" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="S6" t="s">
         <v>36</v>
       </c>
       <c r="T6" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -4977,22 +4963,22 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -5001,16 +4987,16 @@
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="K7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L7" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M7" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N7" t="s">
         <v>15</v>
@@ -5019,19 +5005,19 @@
         <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Q7" t="s">
         <v>30</v>
       </c>
       <c r="R7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="S7" t="s">
         <v>36</v>
       </c>
       <c r="T7" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -5039,22 +5025,22 @@
         <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E8" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -5063,37 +5049,37 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="K8" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L8" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M8" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N8" t="s">
         <v>15</v>
       </c>
       <c r="O8" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="P8" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="Q8" t="s">
         <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="S8" t="s">
         <v>36</v>
       </c>
       <c r="T8" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -5101,22 +5087,22 @@
         <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E9" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -5125,37 +5111,37 @@
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="K9" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L9" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M9" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N9" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="O9" t="s">
         <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Q9" t="s">
         <v>30</v>
       </c>
       <c r="R9" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="S9" t="s">
         <v>36</v>
       </c>
       <c r="T9" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -5163,22 +5149,22 @@
         <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -5187,37 +5173,37 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K10" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L10" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N10" t="s">
         <v>15</v>
       </c>
       <c r="O10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="P10" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Q10" t="s">
         <v>30</v>
       </c>
       <c r="R10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="S10" t="s">
         <v>36</v>
       </c>
       <c r="T10" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -5225,22 +5211,22 @@
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E11" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -5249,37 +5235,37 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K11" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L11" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M11" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N11" t="s">
         <v>15</v>
       </c>
       <c r="O11" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="P11" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Q11" t="s">
         <v>30</v>
       </c>
       <c r="R11" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="S11" t="s">
         <v>36</v>
       </c>
       <c r="T11" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -5312,67 +5298,67 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G1" t="s">
         <v>305</v>
       </c>
       <c r="H1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="J1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="K1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="L1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="N1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="O1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="P1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="Q1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="R1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="S1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="T1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="U1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="V1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="W1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="X1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="Y1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -5380,22 +5366,22 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -5425,22 +5411,22 @@
         <v>14</v>
       </c>
       <c r="R2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="S2" t="s">
         <v>15</v>
       </c>
       <c r="T2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="U2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="V2" t="s">
         <v>375</v>
       </c>
       <c r="W2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="X2" t="s">
         <v>14</v>
@@ -5454,22 +5440,22 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E3" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -5499,22 +5485,22 @@
         <v>14</v>
       </c>
       <c r="R3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="S3" t="s">
         <v>15</v>
       </c>
       <c r="T3" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="U3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="V3" t="s">
         <v>375</v>
       </c>
       <c r="W3" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="X3" t="s">
         <v>14</v>
@@ -5528,22 +5514,22 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E4" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -5573,22 +5559,22 @@
         <v>14</v>
       </c>
       <c r="R4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="S4" t="s">
         <v>15</v>
       </c>
       <c r="T4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="U4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="V4" t="s">
         <v>375</v>
       </c>
       <c r="W4" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="X4" t="s">
         <v>14</v>
@@ -5602,22 +5588,22 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -5647,22 +5633,22 @@
         <v>14</v>
       </c>
       <c r="R5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="S5" t="s">
         <v>15</v>
       </c>
       <c r="T5" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="U5" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="V5" t="s">
         <v>375</v>
       </c>
       <c r="W5" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="X5" t="s">
         <v>14</v>
@@ -5676,22 +5662,22 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
@@ -5721,22 +5707,22 @@
         <v>14</v>
       </c>
       <c r="R6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="S6" t="s">
         <v>15</v>
       </c>
       <c r="T6" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="U6" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="V6" t="s">
         <v>375</v>
       </c>
       <c r="W6" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="X6" t="s">
         <v>14</v>
@@ -5750,22 +5736,22 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E7" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
@@ -5795,22 +5781,22 @@
         <v>14</v>
       </c>
       <c r="R7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="S7" t="s">
         <v>15</v>
       </c>
       <c r="T7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="U7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="V7" t="s">
         <v>375</v>
       </c>
       <c r="W7" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="X7" t="s">
         <v>14</v>
@@ -5824,22 +5810,22 @@
         <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E8" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
@@ -5869,22 +5855,22 @@
         <v>14</v>
       </c>
       <c r="R8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="S8" t="s">
         <v>15</v>
       </c>
       <c r="T8" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="U8" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="V8" t="s">
         <v>375</v>
       </c>
       <c r="W8" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="X8" t="s">
         <v>14</v>
@@ -5898,22 +5884,22 @@
         <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E9" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
@@ -5943,22 +5929,22 @@
         <v>14</v>
       </c>
       <c r="R9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="S9" t="s">
         <v>15</v>
       </c>
       <c r="T9" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="U9" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="V9" t="s">
         <v>375</v>
       </c>
       <c r="W9" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="X9" t="s">
         <v>14</v>
@@ -5972,22 +5958,22 @@
         <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E10" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -6017,22 +6003,22 @@
         <v>14</v>
       </c>
       <c r="R10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="S10" t="s">
         <v>15</v>
       </c>
       <c r="T10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="U10" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="V10" t="s">
         <v>375</v>
       </c>
       <c r="W10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="X10" t="s">
         <v>14</v>
@@ -6046,22 +6032,22 @@
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E11" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F11" t="s">
         <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -6091,22 +6077,22 @@
         <v>14</v>
       </c>
       <c r="R11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="S11" t="s">
         <v>15</v>
       </c>
       <c r="T11" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="U11" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="V11" t="s">
         <v>375</v>
       </c>
       <c r="W11" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="X11" t="s">
         <v>14</v>
@@ -6124,12 +6110,312 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G1" t="s">
+        <v>789</v>
+      </c>
+      <c r="H1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>768</v>
+      </c>
+      <c r="E2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>773</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>773</v>
+      </c>
+      <c r="E3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>775</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>775</v>
+      </c>
+      <c r="E4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G4" t="s">
+        <v>412</v>
+      </c>
+      <c r="H4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>777</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G5" t="s">
+        <v>412</v>
+      </c>
+      <c r="H5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>779</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>779</v>
+      </c>
+      <c r="E6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" t="s">
+        <v>412</v>
+      </c>
+      <c r="G6" t="s">
+        <v>412</v>
+      </c>
+      <c r="H6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>781</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>781</v>
+      </c>
+      <c r="E7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>783</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>783</v>
+      </c>
+      <c r="E8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" t="s">
+        <v>412</v>
+      </c>
+      <c r="G8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>785</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>785</v>
+      </c>
+      <c r="E9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" t="s">
+        <v>412</v>
+      </c>
+      <c r="G9" t="s">
+        <v>412</v>
+      </c>
+      <c r="H9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>410</v>
+      </c>
+      <c r="E10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" t="s">
+        <v>412</v>
+      </c>
+      <c r="G10" t="s">
+        <v>412</v>
+      </c>
+      <c r="H10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>788</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>788</v>
+      </c>
+      <c r="E11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" t="s">
+        <v>412</v>
+      </c>
+      <c r="G11" t="s">
+        <v>412</v>
+      </c>
+      <c r="H11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:H11" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6150,10 +6436,10 @@
         <v>255</v>
       </c>
       <c r="F1" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="G1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -6167,16 +6453,16 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -6187,7 +6473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -6209,13 +6495,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="G1" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -6223,19 +6509,19 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="E2" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="F2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G2" t="s">
         <v>84</v>
@@ -6249,13 +6535,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6278,13 +6562,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -6299,9 +6583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7017,8 +7299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7598,9 +7880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7671,16 +7951,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -7689,22 +7969,22 @@
         <v>249</v>
       </c>
       <c r="I2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K2" t="s">
         <v>78</v>
       </c>
       <c r="L2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M2" t="s">
         <v>72</v>
       </c>
       <c r="N2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O2" t="s">
         <v>251</v>
@@ -7716,10 +7996,10 @@
         <v>265</v>
       </c>
       <c r="R2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="S2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="T2" t="s">
         <v>252</v>
@@ -7764,13 +8044,13 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -7778,13 +8058,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -7802,7 +8082,7 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -7810,13 +8090,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -7834,7 +8114,7 @@
         <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -7867,55 +8147,55 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G1" t="s">
         <v>304</v>
       </c>
       <c r="H1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N1" t="s">
         <v>422</v>
       </c>
-      <c r="N1" t="s">
-        <v>421</v>
-      </c>
       <c r="O1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="S1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="T1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="U1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="V1" t="s">
         <v>13</v>
@@ -7927,13 +8207,13 @@
         <v>10</v>
       </c>
       <c r="Y1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Z1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AA1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -7941,13 +8221,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -7959,7 +8239,7 @@
         <v>402</v>
       </c>
       <c r="H2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -7968,13 +8248,13 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N2" t="s">
         <v>14</v>
@@ -8001,13 +8281,13 @@
         <v>14</v>
       </c>
       <c r="Y2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -8015,13 +8295,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -8033,7 +8313,7 @@
         <v>402</v>
       </c>
       <c r="H3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -8042,13 +8322,13 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -8075,13 +8355,13 @@
         <v>14</v>
       </c>
       <c r="Y3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AA3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
@@ -8089,13 +8369,13 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -8107,7 +8387,7 @@
         <v>402</v>
       </c>
       <c r="H4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -8116,13 +8396,13 @@
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N4" t="s">
         <v>14</v>
@@ -8149,13 +8429,13 @@
         <v>14</v>
       </c>
       <c r="Y4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
@@ -8163,13 +8443,13 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -8181,7 +8461,7 @@
         <v>402</v>
       </c>
       <c r="H5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -8190,13 +8470,13 @@
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N5" t="s">
         <v>14</v>
@@ -8223,13 +8503,13 @@
         <v>14</v>
       </c>
       <c r="Y5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -8237,13 +8517,13 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -8255,7 +8535,7 @@
         <v>402</v>
       </c>
       <c r="H6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -8264,13 +8544,13 @@
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N6" t="s">
         <v>14</v>
@@ -8297,13 +8577,13 @@
         <v>14</v>
       </c>
       <c r="Y6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
@@ -8311,13 +8591,13 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
@@ -8329,7 +8609,7 @@
         <v>402</v>
       </c>
       <c r="H7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -8338,13 +8618,13 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N7" t="s">
         <v>14</v>
@@ -8371,13 +8651,13 @@
         <v>14</v>
       </c>
       <c r="Y7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
@@ -8385,13 +8665,13 @@
         <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -8403,7 +8683,7 @@
         <v>402</v>
       </c>
       <c r="H8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -8412,13 +8692,13 @@
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N8" t="s">
         <v>14</v>
@@ -8445,13 +8725,13 @@
         <v>14</v>
       </c>
       <c r="Y8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -8459,13 +8739,13 @@
         <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -8477,7 +8757,7 @@
         <v>402</v>
       </c>
       <c r="H9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -8486,13 +8766,13 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N9" t="s">
         <v>14</v>
@@ -8519,13 +8799,13 @@
         <v>14</v>
       </c>
       <c r="Y9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
@@ -8533,13 +8813,13 @@
         <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E10" t="s">
         <v>42</v>
@@ -8551,7 +8831,7 @@
         <v>402</v>
       </c>
       <c r="H10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -8560,13 +8840,13 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N10" t="s">
         <v>14</v>
@@ -8593,13 +8873,13 @@
         <v>14</v>
       </c>
       <c r="Y10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
@@ -8607,13 +8887,13 @@
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E11" t="s">
         <v>42</v>
@@ -8625,7 +8905,7 @@
         <v>402</v>
       </c>
       <c r="H11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -8634,13 +8914,13 @@
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M11" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N11" t="s">
         <v>14</v>
@@ -8667,13 +8947,13 @@
         <v>14</v>
       </c>
       <c r="Y11" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Z11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AA11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
@@ -8681,13 +8961,13 @@
         <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E12" t="s">
         <v>48</v>
@@ -8699,7 +8979,7 @@
         <v>402</v>
       </c>
       <c r="H12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I12" t="s">
         <v>17</v>
@@ -8708,13 +8988,13 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L12" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M12" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N12" t="s">
         <v>14</v>
@@ -8741,13 +9021,13 @@
         <v>14</v>
       </c>
       <c r="Y12" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z12" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA12" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -8755,13 +9035,13 @@
         <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E13" t="s">
         <v>48</v>
@@ -8773,7 +9053,7 @@
         <v>402</v>
       </c>
       <c r="H13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
@@ -8782,13 +9062,13 @@
         <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L13" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M13" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N13" t="s">
         <v>14</v>
@@ -8815,13 +9095,13 @@
         <v>14</v>
       </c>
       <c r="Y13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z13" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA13" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -8829,13 +9109,13 @@
         <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E14" t="s">
         <v>54</v>
@@ -8847,7 +9127,7 @@
         <v>402</v>
       </c>
       <c r="H14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I14" t="s">
         <v>17</v>
@@ -8856,13 +9136,13 @@
         <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L14" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N14" t="s">
         <v>14</v>
@@ -8889,13 +9169,13 @@
         <v>14</v>
       </c>
       <c r="Y14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Z14" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AA14" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -8903,13 +9183,13 @@
         <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E15" t="s">
         <v>60</v>
@@ -8921,7 +9201,7 @@
         <v>402</v>
       </c>
       <c r="H15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I15" t="s">
         <v>17</v>
@@ -8930,13 +9210,13 @@
         <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L15" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M15" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N15" t="s">
         <v>14</v>
@@ -8963,13 +9243,13 @@
         <v>14</v>
       </c>
       <c r="Y15" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Z15" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA15" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
@@ -8977,13 +9257,13 @@
         <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E16" t="s">
         <v>66</v>
@@ -8995,7 +9275,7 @@
         <v>402</v>
       </c>
       <c r="H16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I16" t="s">
         <v>17</v>
@@ -9004,10 +9284,10 @@
         <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L16" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M16" t="s">
         <v>259</v>
@@ -9037,13 +9317,13 @@
         <v>14</v>
       </c>
       <c r="Y16" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z16" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA16" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
@@ -9051,13 +9331,13 @@
         <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E17" t="s">
         <v>72</v>
@@ -9069,7 +9349,7 @@
         <v>402</v>
       </c>
       <c r="H17" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I17" t="s">
         <v>17</v>
@@ -9078,13 +9358,13 @@
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L17" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N17" t="s">
         <v>14</v>
@@ -9111,13 +9391,13 @@
         <v>14</v>
       </c>
       <c r="Y17" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z17" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA17" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
@@ -9125,13 +9405,13 @@
         <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E18" t="s">
         <v>72</v>
@@ -9143,7 +9423,7 @@
         <v>402</v>
       </c>
       <c r="H18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I18" t="s">
         <v>17</v>
@@ -9152,13 +9432,13 @@
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L18" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M18" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N18" t="s">
         <v>14</v>
@@ -9185,13 +9465,13 @@
         <v>14</v>
       </c>
       <c r="Y18" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z18" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA18" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
@@ -9199,13 +9479,13 @@
         <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E19" t="s">
         <v>91</v>
@@ -9217,7 +9497,7 @@
         <v>402</v>
       </c>
       <c r="H19" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -9226,13 +9506,13 @@
         <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L19" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N19" t="s">
         <v>14</v>
@@ -9259,13 +9539,13 @@
         <v>14</v>
       </c>
       <c r="Y19" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z19" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA19" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
@@ -9273,13 +9553,13 @@
         <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E20" t="s">
         <v>97</v>
@@ -9291,7 +9571,7 @@
         <v>402</v>
       </c>
       <c r="H20" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I20" t="s">
         <v>17</v>
@@ -9300,13 +9580,13 @@
         <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L20" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M20" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N20" t="s">
         <v>14</v>
@@ -9333,13 +9613,13 @@
         <v>14</v>
       </c>
       <c r="Y20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
@@ -9347,13 +9627,13 @@
         <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E21" t="s">
         <v>102</v>
@@ -9365,7 +9645,7 @@
         <v>402</v>
       </c>
       <c r="H21" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
@@ -9374,13 +9654,13 @@
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L21" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M21" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N21" t="s">
         <v>14</v>
@@ -9407,13 +9687,13 @@
         <v>14</v>
       </c>
       <c r="Y21" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z21" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA21" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
@@ -9421,13 +9701,13 @@
         <v>132</v>
       </c>
       <c r="B22" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E22" t="s">
         <v>108</v>
@@ -9439,7 +9719,7 @@
         <v>402</v>
       </c>
       <c r="H22" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I22" t="s">
         <v>17</v>
@@ -9448,13 +9728,13 @@
         <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L22" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M22" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N22" t="s">
         <v>14</v>
@@ -9481,13 +9761,13 @@
         <v>14</v>
       </c>
       <c r="Y22" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z22" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA22" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
@@ -9495,13 +9775,13 @@
         <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E23" t="s">
         <v>108</v>
@@ -9513,7 +9793,7 @@
         <v>402</v>
       </c>
       <c r="H23" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
@@ -9522,13 +9802,13 @@
         <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L23" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M23" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N23" t="s">
         <v>14</v>
@@ -9555,13 +9835,13 @@
         <v>14</v>
       </c>
       <c r="Y23" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z23" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA23" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
@@ -9569,13 +9849,13 @@
         <v>144</v>
       </c>
       <c r="B24" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E24" t="s">
         <v>108</v>
@@ -9587,7 +9867,7 @@
         <v>402</v>
       </c>
       <c r="H24" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I24" t="s">
         <v>17</v>
@@ -9596,13 +9876,13 @@
         <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L24" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M24" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N24" t="s">
         <v>14</v>
@@ -9629,13 +9909,13 @@
         <v>14</v>
       </c>
       <c r="Y24" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z24" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA24" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
@@ -9643,13 +9923,13 @@
         <v>150</v>
       </c>
       <c r="B25" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E25" t="s">
         <v>108</v>
@@ -9661,7 +9941,7 @@
         <v>402</v>
       </c>
       <c r="H25" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -9670,13 +9950,13 @@
         <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L25" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M25" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N25" t="s">
         <v>14</v>
@@ -9703,13 +9983,13 @@
         <v>14</v>
       </c>
       <c r="Y25" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z25" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA25" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
@@ -9717,13 +9997,13 @@
         <v>156</v>
       </c>
       <c r="B26" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E26" t="s">
         <v>114</v>
@@ -9735,7 +10015,7 @@
         <v>402</v>
       </c>
       <c r="H26" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -9744,13 +10024,13 @@
         <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L26" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M26" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N26" t="s">
         <v>14</v>
@@ -9777,13 +10057,13 @@
         <v>14</v>
       </c>
       <c r="Y26" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z26" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA26" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
@@ -9791,13 +10071,13 @@
         <v>162</v>
       </c>
       <c r="B27" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E27" t="s">
         <v>114</v>
@@ -9809,7 +10089,7 @@
         <v>402</v>
       </c>
       <c r="H27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -9818,13 +10098,13 @@
         <v>17</v>
       </c>
       <c r="K27" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L27" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M27" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N27" t="s">
         <v>14</v>
@@ -9851,13 +10131,13 @@
         <v>14</v>
       </c>
       <c r="Y27" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z27" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA27" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
@@ -9865,13 +10145,13 @@
         <v>168</v>
       </c>
       <c r="B28" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E28" t="s">
         <v>138</v>
@@ -9883,7 +10163,7 @@
         <v>402</v>
       </c>
       <c r="H28" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -9892,13 +10172,13 @@
         <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L28" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M28" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N28" t="s">
         <v>14</v>
@@ -9925,13 +10205,13 @@
         <v>14</v>
       </c>
       <c r="Y28" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z28" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA28" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
@@ -9939,13 +10219,13 @@
         <v>174</v>
       </c>
       <c r="B29" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E29" t="s">
         <v>144</v>
@@ -9957,7 +10237,7 @@
         <v>402</v>
       </c>
       <c r="H29" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I29" t="s">
         <v>17</v>
@@ -9966,13 +10246,13 @@
         <v>17</v>
       </c>
       <c r="K29" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L29" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M29" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N29" t="s">
         <v>14</v>
@@ -9999,13 +10279,13 @@
         <v>14</v>
       </c>
       <c r="Y29" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z29" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA29" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
@@ -10013,13 +10293,13 @@
         <v>180</v>
       </c>
       <c r="B30" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E30" t="s">
         <v>150</v>
@@ -10031,7 +10311,7 @@
         <v>402</v>
       </c>
       <c r="H30" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I30" t="s">
         <v>17</v>
@@ -10040,13 +10320,13 @@
         <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L30" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M30" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N30" t="s">
         <v>14</v>
@@ -10073,13 +10353,13 @@
         <v>14</v>
       </c>
       <c r="Y30" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z30" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA30" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
@@ -10087,13 +10367,13 @@
         <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E31" t="s">
         <v>162</v>
@@ -10105,7 +10385,7 @@
         <v>402</v>
       </c>
       <c r="H31" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I31" t="s">
         <v>17</v>
@@ -10114,13 +10394,13 @@
         <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L31" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M31" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N31" t="s">
         <v>14</v>
@@ -10147,13 +10427,13 @@
         <v>14</v>
       </c>
       <c r="Y31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z31" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA31" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
@@ -10161,13 +10441,13 @@
         <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E32" t="s">
         <v>168</v>
@@ -10179,7 +10459,7 @@
         <v>402</v>
       </c>
       <c r="H32" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I32" t="s">
         <v>17</v>
@@ -10191,10 +10471,10 @@
         <v>321</v>
       </c>
       <c r="L32" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M32" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N32" t="s">
         <v>14</v>
@@ -10221,13 +10501,13 @@
         <v>14</v>
       </c>
       <c r="Y32" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z32" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA32" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
@@ -10235,13 +10515,13 @@
         <v>199</v>
       </c>
       <c r="B33" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E33" t="s">
         <v>168</v>
@@ -10253,7 +10533,7 @@
         <v>402</v>
       </c>
       <c r="H33" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
@@ -10262,13 +10542,13 @@
         <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L33" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M33" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N33" t="s">
         <v>14</v>
@@ -10295,13 +10575,13 @@
         <v>14</v>
       </c>
       <c r="Y33" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z33" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA33" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
@@ -10309,13 +10589,13 @@
         <v>205</v>
       </c>
       <c r="B34" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E34" t="s">
         <v>168</v>
@@ -10327,7 +10607,7 @@
         <v>402</v>
       </c>
       <c r="H34" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I34" t="s">
         <v>17</v>
@@ -10336,13 +10616,13 @@
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L34" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M34" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N34" t="s">
         <v>14</v>
@@ -10369,13 +10649,13 @@
         <v>14</v>
       </c>
       <c r="Y34" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z34" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA34" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
@@ -10383,13 +10663,13 @@
         <v>211</v>
       </c>
       <c r="B35" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E35" t="s">
         <v>180</v>
@@ -10401,7 +10681,7 @@
         <v>402</v>
       </c>
       <c r="H35" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I35" t="s">
         <v>17</v>
@@ -10413,10 +10693,10 @@
         <v>321</v>
       </c>
       <c r="L35" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M35" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N35" t="s">
         <v>14</v>
@@ -10443,13 +10723,13 @@
         <v>14</v>
       </c>
       <c r="Y35" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z35" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA35" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
@@ -10457,13 +10737,13 @@
         <v>217</v>
       </c>
       <c r="B36" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E36" t="s">
         <v>24</v>
@@ -10475,7 +10755,7 @@
         <v>402</v>
       </c>
       <c r="H36" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I36" t="s">
         <v>17</v>
@@ -10487,7 +10767,7 @@
         <v>14</v>
       </c>
       <c r="L36" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M36" t="s">
         <v>14</v>
@@ -10511,19 +10791,19 @@
         <v>15</v>
       </c>
       <c r="T36" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="U36" t="s">
         <v>14</v>
       </c>
       <c r="Y36" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z36" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA36" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
@@ -10531,13 +10811,13 @@
         <v>224</v>
       </c>
       <c r="B37" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E37" t="s">
         <v>199</v>
@@ -10549,7 +10829,7 @@
         <v>402</v>
       </c>
       <c r="H37" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I37" t="s">
         <v>194</v>
@@ -10561,7 +10841,7 @@
         <v>14</v>
       </c>
       <c r="L37" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M37" t="s">
         <v>14</v>
@@ -10591,13 +10871,13 @@
         <v>14</v>
       </c>
       <c r="Y37" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z37" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA37" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
@@ -10605,13 +10885,13 @@
         <v>230</v>
       </c>
       <c r="B38" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E38" t="s">
         <v>72</v>
@@ -10623,7 +10903,7 @@
         <v>402</v>
       </c>
       <c r="H38" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I38" t="s">
         <v>17</v>
@@ -10635,7 +10915,7 @@
         <v>14</v>
       </c>
       <c r="L38" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M38" t="s">
         <v>14</v>
@@ -10659,19 +10939,19 @@
         <v>15</v>
       </c>
       <c r="T38" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="U38" t="s">
         <v>14</v>
       </c>
       <c r="Y38" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z38" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA38" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
@@ -10679,13 +10959,13 @@
         <v>237</v>
       </c>
       <c r="B39" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C39" t="s">
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E39" t="s">
         <v>84</v>
@@ -10697,7 +10977,7 @@
         <v>402</v>
       </c>
       <c r="H39" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I39" t="s">
         <v>86</v>
@@ -10706,10 +10986,10 @@
         <v>17</v>
       </c>
       <c r="K39" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L39" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M39" t="s">
         <v>14</v>
@@ -10733,19 +11013,19 @@
         <v>15</v>
       </c>
       <c r="T39" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="U39" t="s">
         <v>14</v>
       </c>
       <c r="Y39" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z39" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA39" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
@@ -10753,13 +11033,13 @@
         <v>243</v>
       </c>
       <c r="B40" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E40" t="s">
         <v>84</v>
@@ -10771,7 +11051,7 @@
         <v>402</v>
       </c>
       <c r="H40" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I40" t="s">
         <v>86</v>
@@ -10780,10 +11060,10 @@
         <v>17</v>
       </c>
       <c r="K40" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L40" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M40" t="s">
         <v>14</v>
@@ -10807,19 +11087,19 @@
         <v>15</v>
       </c>
       <c r="T40" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="U40" t="s">
         <v>14</v>
       </c>
       <c r="Y40" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z40" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA40" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
@@ -10827,13 +11107,13 @@
         <v>249</v>
       </c>
       <c r="B41" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E41" t="s">
         <v>126</v>
@@ -10845,7 +11125,7 @@
         <v>402</v>
       </c>
       <c r="H41" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I41" t="s">
         <v>17</v>
@@ -10854,10 +11134,10 @@
         <v>86</v>
       </c>
       <c r="K41" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L41" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M41" t="s">
         <v>14</v>
@@ -10887,27 +11167,27 @@
         <v>14</v>
       </c>
       <c r="Y41" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z41" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA41" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B42" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E42" t="s">
         <v>126</v>
@@ -10919,7 +11199,7 @@
         <v>402</v>
       </c>
       <c r="H42" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I42" t="s">
         <v>17</v>
@@ -10928,10 +11208,10 @@
         <v>138</v>
       </c>
       <c r="K42" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L42" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M42" t="s">
         <v>14</v>
@@ -10955,33 +11235,33 @@
         <v>15</v>
       </c>
       <c r="T42" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="U42" t="s">
         <v>14</v>
       </c>
       <c r="Y42" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z42" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B43" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E43" t="s">
         <v>132</v>
@@ -10993,7 +11273,7 @@
         <v>402</v>
       </c>
       <c r="H43" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I43" t="s">
         <v>86</v>
@@ -11002,10 +11282,10 @@
         <v>219</v>
       </c>
       <c r="K43" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L43" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M43" t="s">
         <v>14</v>
@@ -11029,33 +11309,33 @@
         <v>15</v>
       </c>
       <c r="T43" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="U43" t="s">
         <v>14</v>
       </c>
       <c r="Y43" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z43" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA43" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B44" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E44" t="s">
         <v>144</v>
@@ -11067,7 +11347,7 @@
         <v>402</v>
       </c>
       <c r="H44" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I44" t="s">
         <v>17</v>
@@ -11079,7 +11359,7 @@
         <v>14</v>
       </c>
       <c r="L44" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M44" t="s">
         <v>14</v>
@@ -11103,33 +11383,33 @@
         <v>15</v>
       </c>
       <c r="T44" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="U44" t="s">
         <v>14</v>
       </c>
       <c r="Y44" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z44" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA44" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B45" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E45" t="s">
         <v>150</v>
@@ -11141,7 +11421,7 @@
         <v>402</v>
       </c>
       <c r="H45" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I45" t="s">
         <v>17</v>
@@ -11150,10 +11430,10 @@
         <v>232</v>
       </c>
       <c r="K45" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L45" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M45" t="s">
         <v>14</v>
@@ -11183,27 +11463,27 @@
         <v>14</v>
       </c>
       <c r="Y45" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z45" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA45" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B46" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C46" t="s">
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E46" t="s">
         <v>162</v>
@@ -11215,7 +11495,7 @@
         <v>402</v>
       </c>
       <c r="H46" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I46" t="s">
         <v>17</v>
@@ -11224,10 +11504,10 @@
         <v>232</v>
       </c>
       <c r="K46" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L46" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M46" t="s">
         <v>14</v>
@@ -11251,33 +11531,33 @@
         <v>15</v>
       </c>
       <c r="T46" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="U46" t="s">
         <v>14</v>
       </c>
       <c r="Y46" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z46" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA46" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B47" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E47" t="s">
         <v>186</v>
@@ -11289,7 +11569,7 @@
         <v>402</v>
       </c>
       <c r="H47" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I47" t="s">
         <v>17</v>
@@ -11298,10 +11578,10 @@
         <v>194</v>
       </c>
       <c r="K47" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L47" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M47" t="s">
         <v>14</v>
@@ -11325,19 +11605,19 @@
         <v>15</v>
       </c>
       <c r="T47" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="U47" t="s">
         <v>14</v>
       </c>
       <c r="Y47" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Z47" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AA47" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -11381,7 +11661,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -11395,7 +11675,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -11410,9 +11690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -11436,7 +11714,7 @@
         <v>403</v>
       </c>
       <c r="G1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1" t="s">
         <v>304</v>
@@ -11445,61 +11723,61 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M1" t="s">
         <v>310</v>
       </c>
       <c r="N1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="P1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Q1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="R1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="S1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="T1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="U1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="V1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="W1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="X1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Y1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="Z1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AA1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AB1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -11507,13 +11785,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E2" t="s">
         <v>192</v>
@@ -11522,7 +11800,7 @@
         <v>312</v>
       </c>
       <c r="G2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H2" t="s">
         <v>313</v>
@@ -11531,22 +11809,22 @@
         <v>194</v>
       </c>
       <c r="J2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="P2" t="s">
         <v>14</v>
@@ -11564,28 +11842,28 @@
         <v>15</v>
       </c>
       <c r="U2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="V2" t="s">
         <v>322</v>
       </c>
       <c r="W2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="X2" t="s">
         <v>322</v>
       </c>
       <c r="Y2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Z2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AA2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AB2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -11593,13 +11871,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E3" t="s">
         <v>199</v>
@@ -11608,7 +11886,7 @@
         <v>323</v>
       </c>
       <c r="G3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H3" t="s">
         <v>324</v>
@@ -11617,22 +11895,22 @@
         <v>194</v>
       </c>
       <c r="J3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M3" t="s">
         <v>14</v>
       </c>
       <c r="N3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="P3" t="s">
         <v>14</v>
@@ -11647,31 +11925,31 @@
         <v>14</v>
       </c>
       <c r="T3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="U3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="V3" t="s">
         <v>333</v>
       </c>
       <c r="W3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="X3" t="s">
         <v>333</v>
       </c>
       <c r="Y3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Z3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AA3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AB3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -11679,13 +11957,13 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E4" t="s">
         <v>205</v>
@@ -11694,7 +11972,7 @@
         <v>334</v>
       </c>
       <c r="G4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H4" t="s">
         <v>335</v>
@@ -11703,22 +11981,22 @@
         <v>138</v>
       </c>
       <c r="J4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="P4" t="s">
         <v>14</v>
@@ -11733,31 +12011,31 @@
         <v>14</v>
       </c>
       <c r="T4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="U4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="V4" t="s">
         <v>343</v>
       </c>
       <c r="W4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="X4" t="s">
         <v>343</v>
       </c>
       <c r="Y4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="Z4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AA4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AB4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
@@ -11765,13 +12043,13 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E5" t="s">
         <v>211</v>
@@ -11780,7 +12058,7 @@
         <v>344</v>
       </c>
       <c r="G5" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H5" t="s">
         <v>345</v>
@@ -11789,22 +12067,22 @@
         <v>138</v>
       </c>
       <c r="J5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O5" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="P5" t="s">
         <v>14</v>
@@ -11819,7 +12097,7 @@
         <v>14</v>
       </c>
       <c r="T5" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="U5" t="s">
         <v>328</v>
@@ -11828,22 +12106,22 @@
         <v>353</v>
       </c>
       <c r="W5" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="X5" t="s">
         <v>353</v>
       </c>
       <c r="Y5" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="Z5" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AA5" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AB5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
@@ -11851,13 +12129,13 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E6" t="s">
         <v>217</v>
@@ -11866,7 +12144,7 @@
         <v>354</v>
       </c>
       <c r="G6" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H6" t="s">
         <v>355</v>
@@ -11875,22 +12153,22 @@
         <v>219</v>
       </c>
       <c r="J6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
       </c>
       <c r="N6" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="P6" t="s">
         <v>14</v>
@@ -11905,31 +12183,31 @@
         <v>14</v>
       </c>
       <c r="T6" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="U6" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="V6" t="s">
         <v>362</v>
       </c>
       <c r="W6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="X6" t="s">
         <v>362</v>
       </c>
       <c r="Y6" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Z6" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AA6" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AB6" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -11937,13 +12215,13 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E7" t="s">
         <v>224</v>
@@ -11952,7 +12230,7 @@
         <v>363</v>
       </c>
       <c r="G7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H7" t="s">
         <v>364</v>
@@ -11961,19 +12239,19 @@
         <v>219</v>
       </c>
       <c r="J7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O7" t="s">
         <v>326</v>
@@ -11991,10 +12269,10 @@
         <v>14</v>
       </c>
       <c r="T7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="U7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="V7" t="s">
         <v>371</v>
@@ -12006,16 +12284,16 @@
         <v>371</v>
       </c>
       <c r="Y7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="Z7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AA7" t="s">
         <v>302</v>
       </c>
       <c r="AB7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
@@ -12023,13 +12301,13 @@
         <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E8" t="s">
         <v>230</v>
@@ -12038,7 +12316,7 @@
         <v>372</v>
       </c>
       <c r="G8" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H8" t="s">
         <v>373</v>
@@ -12047,22 +12325,22 @@
         <v>232</v>
       </c>
       <c r="J8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
       </c>
       <c r="N8" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O8" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="P8" t="s">
         <v>14</v>
@@ -12077,31 +12355,31 @@
         <v>14</v>
       </c>
       <c r="T8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="U8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="V8" t="s">
         <v>381</v>
       </c>
       <c r="W8" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="X8" t="s">
         <v>381</v>
       </c>
       <c r="Y8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Z8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AA8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AB8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
@@ -12109,13 +12387,13 @@
         <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E9" t="s">
         <v>237</v>
@@ -12124,7 +12402,7 @@
         <v>382</v>
       </c>
       <c r="G9" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H9" t="s">
         <v>383</v>
@@ -12133,22 +12411,22 @@
         <v>232</v>
       </c>
       <c r="J9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
       </c>
       <c r="N9" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O9" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="P9" t="s">
         <v>14</v>
@@ -12166,28 +12444,28 @@
         <v>338</v>
       </c>
       <c r="U9" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="V9" t="s">
         <v>391</v>
       </c>
       <c r="W9" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="X9" t="s">
         <v>391</v>
       </c>
       <c r="Y9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Z9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AA9" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AB9" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
@@ -12195,13 +12473,13 @@
         <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E10" t="s">
         <v>243</v>
@@ -12210,7 +12488,7 @@
         <v>392</v>
       </c>
       <c r="G10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H10" t="s">
         <v>393</v>
@@ -12219,22 +12497,22 @@
         <v>194</v>
       </c>
       <c r="J10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
       </c>
       <c r="N10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O10" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="P10" t="s">
         <v>14</v>
@@ -12249,31 +12527,31 @@
         <v>14</v>
       </c>
       <c r="T10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="U10" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="V10" t="s">
         <v>401</v>
       </c>
       <c r="W10" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="X10" t="s">
         <v>401</v>
       </c>
       <c r="Y10" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Z10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AA10" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AB10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
@@ -12281,31 +12559,31 @@
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E11" t="s">
         <v>249</v>
       </c>
       <c r="F11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G11" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -12317,10 +12595,10 @@
         <v>14</v>
       </c>
       <c r="N11" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O11" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="P11" t="s">
         <v>14</v>
@@ -12335,31 +12613,31 @@
         <v>14</v>
       </c>
       <c r="T11" t="s">
+        <v>675</v>
+      </c>
+      <c r="U11" t="s">
+        <v>676</v>
+      </c>
+      <c r="V11" t="s">
+        <v>421</v>
+      </c>
+      <c r="W11" t="s">
         <v>674</v>
       </c>
-      <c r="U11" t="s">
-        <v>675</v>
-      </c>
-      <c r="V11" t="s">
-        <v>420</v>
-      </c>
-      <c r="W11" t="s">
-        <v>673</v>
-      </c>
       <c r="X11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Y11" t="s">
         <v>54</v>
       </c>
       <c r="Z11" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AA11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AB11" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -12372,571 +12650,500 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" t="s">
         <v>677</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" t="s">
         <v>678</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
         <v>679</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" t="s">
         <v>680</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" t="s">
         <v>681</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" t="s">
         <v>682</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" t="s">
         <v>683</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" t="s">
         <v>684</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" t="s">
         <v>685</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="N1" t="s">
         <v>686</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F2" t="s">
         <v>313</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="I2" s="1">
-        <v>100</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>688</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-3.3300000000000002E-4</v>
-      </c>
-      <c r="P2" s="2">
-        <v>3.3300000000000002E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="I2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
         <v>689</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>690</v>
+      </c>
+      <c r="E3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>688</v>
+      </c>
+      <c r="I3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
         <v>689</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="I3" s="1">
-        <v>100</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>691</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>691</v>
+      </c>
+      <c r="E4" t="s">
+        <v>634</v>
+      </c>
+      <c r="F4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>688</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="1">
-        <v>-3.3300000000000002E-4</v>
-      </c>
-      <c r="P3" s="2">
-        <v>3.3300000000000002E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="I4" s="1">
-        <v>100</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="I4" t="s">
+        <v>315</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>689</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>692</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>692</v>
+      </c>
+      <c r="E5" t="s">
+        <v>640</v>
+      </c>
+      <c r="F5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>688</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="1">
-        <v>-3.3300000000000002E-4</v>
-      </c>
-      <c r="P4" s="2">
-        <v>3.3300000000000002E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="I5" s="1">
-        <v>100</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="I5" t="s">
+        <v>315</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>689</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>693</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>693</v>
+      </c>
+      <c r="E6" t="s">
+        <v>645</v>
+      </c>
+      <c r="F6" t="s">
+        <v>355</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
         <v>688</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="1">
-        <v>-3.3300000000000002E-4</v>
-      </c>
-      <c r="P5" s="2">
-        <v>3.3300000000000002E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="I6" s="1">
-        <v>100</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="I6" t="s">
+        <v>315</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
+        <v>689</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>694</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>694</v>
+      </c>
+      <c r="E7" t="s">
+        <v>652</v>
+      </c>
+      <c r="F7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
         <v>688</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="1">
-        <v>-3.3300000000000002E-4</v>
-      </c>
-      <c r="P6" s="2">
-        <v>3.3300000000000002E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="I7" s="1">
-        <v>100</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="I7" t="s">
+        <v>315</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>689</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>695</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>695</v>
+      </c>
+      <c r="E8" t="s">
+        <v>657</v>
+      </c>
+      <c r="F8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
         <v>688</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="1">
-        <v>-3.3300000000000002E-4</v>
-      </c>
-      <c r="P7" s="2">
-        <v>3.3300000000000002E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="I8" s="1">
-        <v>100</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="I8" t="s">
+        <v>315</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>689</v>
+      </c>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>696</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>696</v>
+      </c>
+      <c r="E9" t="s">
+        <v>662</v>
+      </c>
+      <c r="F9" t="s">
+        <v>383</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
         <v>688</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="1">
-        <v>-3.3300000000000002E-4</v>
-      </c>
-      <c r="P8" s="2">
-        <v>3.3300000000000002E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="I9" s="1">
-        <v>100</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="I9" t="s">
+        <v>315</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" t="s">
+        <v>689</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>697</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>697</v>
+      </c>
+      <c r="E10" t="s">
+        <v>667</v>
+      </c>
+      <c r="F10" t="s">
+        <v>393</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
         <v>688</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="1">
-        <v>-3.3300000000000002E-4</v>
-      </c>
-      <c r="P9" s="2">
-        <v>3.3300000000000002E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="I10" s="1">
-        <v>100</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="I10" t="s">
+        <v>315</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" t="s">
+        <v>689</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>698</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>698</v>
+      </c>
+      <c r="E11" t="s">
+        <v>673</v>
+      </c>
+      <c r="F11" t="s">
+        <v>415</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
         <v>688</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="1">
-        <v>-3.3300000000000002E-4</v>
-      </c>
-      <c r="P10" s="2">
-        <v>3.3300000000000002E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="I11" s="1">
-        <v>100</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="1">
-        <v>-3.3300000000000002E-4</v>
-      </c>
-      <c r="P11" s="2">
-        <v>3.3300000000000002E-4</v>
+      <c r="I11" t="s">
+        <v>315</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>689</v>
+      </c>
+      <c r="N11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A3:H11 A1:M1 A2:H2 J2:N2 J3:N11" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:N11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>